--- a/static/DataProc.xlsx
+++ b/static/DataProc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Баллы\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A739F83-8FDF-4942-9BAF-87ED3872D5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EBB22C-4A07-4476-9E26-8163BBC79934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D91BFE3C-4080-4E90-B0A5-36DBB44A68F3}"/>
+    <workbookView xWindow="38880" yWindow="2025" windowWidth="16635" windowHeight="12090" xr2:uid="{D91BFE3C-4080-4E90-B0A5-36DBB44A68F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Баланс</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>июн.25</t>
+  </si>
+  <si>
+    <t>ИТОГО</t>
   </si>
 </sst>
 </file>
@@ -483,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A5C2FE-A3F2-4D4D-AACD-44B4FB9EC568}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:Z1048576"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,10 +525,10 @@
         <v>10</v>
       </c>
       <c r="B2" s="1">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -548,10 +551,10 @@
         <v>9</v>
       </c>
       <c r="B3" s="1">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -574,10 +577,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="1">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -600,10 +603,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -626,10 +629,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -652,10 +655,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C7" s="1">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -678,10 +681,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="1">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -704,10 +707,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="1">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="C9" s="1">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -730,10 +733,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="1">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -756,10 +759,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -774,6 +777,32 @@
         <v>0</v>
       </c>
       <c r="H11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>312</v>
+      </c>
+      <c r="C12">
+        <v>312</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>0</v>
       </c>
     </row>
